--- a/实施周数据-李登林组/1月/3周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/1月/3周/实施周数据-李登林组-别伟超.xlsx
@@ -587,7 +587,7 @@
     <t>悸动(嘉定花园浜路店)</t>
   </si>
   <si>
-    <t>旧品牌</t>
+    <t>老品牌</t>
   </si>
   <si>
     <t>悸动(松江嘉禾广场店)</t>
@@ -2212,11 +2212,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2302,21 +2302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,25 +2324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,15 +2339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,17 +2353,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2422,7 +2386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,13 +2399,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2450,6 +2443,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2521,13 +2521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,7 +2533,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,91 +2587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2653,6 +2617,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2665,25 +2635,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,41 +3054,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3108,13 +3078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3143,6 +3117,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3157,10 +3157,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3169,141 +3169,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -4450,7 +4450,7 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
